--- a/data/doctors.xlsx
+++ b/data/doctors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babaazihiba/Desktop/MedGuide/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0626974-81C2-EE46-91F8-6F7CE437A29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61428E34-362A-0E45-8E8E-F321668662DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doctors" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
-    <t>les docteurs</t>
-  </si>
-  <si>
     <t>adresse</t>
   </si>
   <si>
-    <t xml:space="preserve"> numero de telephone</t>
-  </si>
-  <si>
     <t>specialite</t>
   </si>
   <si>
@@ -311,6 +305,12 @@
   </si>
   <si>
     <t>residence Bd Allal Al Fassi 60000 Oujda</t>
+  </si>
+  <si>
+    <t>doctors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phoneNumber</t>
   </si>
 </sst>
 </file>
@@ -708,576 +708,576 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>536719999</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>536535890</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>536700664</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>536700900</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>536681633</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>536707052</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>536697991</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>615864131</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>536000800</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>536680033</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>536706968</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>536686677</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>536686616</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>536702285</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>536707004</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>536700800</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>536708760</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>536703550</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>536685464</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>536697002</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>536706120</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>661470643</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>536705955</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>536710165</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>536538091</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>536702121</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>536707589</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>536711069</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>536697035</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>530302425</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>536685868</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>536705469</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>536538214</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>536658884</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1">
         <v>536680075</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>536707080</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38">
         <v>536691895</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39">
         <v>536690590</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>536702270</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41">
         <v>536706603</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/doctors.xlsx
+++ b/data/doctors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/babaazihiba/Desktop/MedGuide/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61428E34-362A-0E45-8E8E-F321668662DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5815E-FC0A-184B-AD81-AF084A480C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="0" windowWidth="10000" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doctors" sheetId="1" r:id="rId1"/>
@@ -307,10 +307,10 @@
     <t>residence Bd Allal Al Fassi 60000 Oujda</t>
   </si>
   <si>
-    <t>doctors</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> phoneNumber</t>
+    <t>doctor_name</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
